--- a/data/trans_orig/IP13_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>236615</v>
+        <v>12182</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>181793</v>
+        <v>15109</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>586</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>418407</v>
+        <v>27291</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>98,12%</t>
         </is>
       </c>
     </row>
@@ -750,66 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>13571</v>
+        <v>516</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>10559</v>
+        <v>1678</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>24131</v>
+        <v>2194</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>20,8%</t>
         </is>
       </c>
     </row>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1113,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>160933</v>
+        <v>236615</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>161787</v>
+        <v>181793</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>445</v>
+        <v>586</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>322718</v>
+        <v>418407</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>96,08%</t>
         </is>
       </c>
     </row>
@@ -1187,63 +1187,63 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>14083</v>
+        <v>13571</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>10156</v>
+        <v>10559</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>24240</v>
+        <v>24131</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1330,52 +1330,52 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>12182</v>
+        <v>159681</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>15109</v>
+        <v>156056</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>44</v>
+        <v>415</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>27291</v>
+        <v>315737</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>94,67%</t>
         </is>
       </c>
     </row>
@@ -1401,52 +1401,52 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>516</v>
+        <v>13527</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1678</v>
+        <v>11846</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2194</v>
+        <v>25373</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>10,16%</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1547,66 +1547,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>159681</v>
+        <v>160933</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>156056</v>
+        <v>161787</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>315737</v>
+        <v>322718</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>95,03%</t>
         </is>
       </c>
     </row>
@@ -1621,63 +1621,63 @@
         <v>19</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>13527</v>
+        <v>14083</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>11846</v>
+        <v>10156</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>25373</v>
+        <v>24240</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/IP13_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13_2023-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2023 (Tasa respuesta: 99,9%)</t>
+          <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -675,70 +675,70 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12182</v>
+        <v>516</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>15109</v>
+        <v>1678</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>27291</v>
+        <v>2194</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>20,8%</t>
         </is>
       </c>
     </row>
@@ -746,70 +746,70 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>516</v>
+        <v>12182</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1678</v>
+        <v>15109</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2194</v>
+        <v>27291</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>98,12%</t>
         </is>
       </c>
     </row>
@@ -892,70 +892,70 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>108597</v>
+        <v>5325</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>100226</v>
+        <v>3669</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>208822</v>
+        <v>8994</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -963,70 +963,70 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5325</v>
+        <v>108597</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>3669</v>
+        <v>100226</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8994</v>
+        <v>208822</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>97,65%</t>
         </is>
       </c>
     </row>
@@ -1109,70 +1109,70 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>236615</v>
+        <v>13571</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>181793</v>
+        <v>10559</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>586</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>418407</v>
+        <v>24131</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1180,70 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>13571</v>
+        <v>236615</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>10559</v>
+        <v>181793</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>37</v>
+        <v>586</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>24131</v>
+        <v>418407</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>96,19%</t>
         </is>
       </c>
     </row>
@@ -1326,70 +1326,70 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>159681</v>
+        <v>13527</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>156056</v>
+        <v>11846</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>415</v>
+        <v>36</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>315737</v>
+        <v>25373</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>10,17%</t>
         </is>
       </c>
     </row>
@@ -1397,70 +1397,70 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>13527</v>
+        <v>159681</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>11846</v>
+        <v>156056</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>36</v>
+        <v>415</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>25373</v>
+        <v>315737</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>94,75%</t>
         </is>
       </c>
     </row>
@@ -1543,70 +1543,70 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>160933</v>
+        <v>14083</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>161787</v>
+        <v>10156</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>445</v>
+        <v>33</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>322718</v>
+        <v>24240</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -1614,70 +1614,70 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>14083</v>
+        <v>160933</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>10156</v>
+        <v>161787</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>90,32%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>33</v>
+        <v>445</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>24240</v>
+        <v>322718</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>94,97%</t>
         </is>
       </c>
     </row>
@@ -1760,70 +1760,70 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>910</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>678007</v>
+        <v>47023</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>884</v>
+        <v>58</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>614970</v>
+        <v>37909</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>1794</v>
+        <v>124</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1292977</v>
+        <v>84932</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -1831,70 +1831,70 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>66</v>
+        <v>910</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>47023</v>
+        <v>678007</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>58</v>
+        <v>884</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>37909</v>
+        <v>614970</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>124</v>
+        <v>1794</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>84932</v>
+        <v>1292977</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>94,89%</t>
         </is>
       </c>
     </row>
@@ -1966,6 +1966,13 @@
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP13_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>21,44%</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,2%</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,53%</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,37%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,03%</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,84%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP13_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -543,7 +543,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -552,7 +552,7 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="I1" s="3" t="n"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>516</v>
+        <v>5263</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1678</v>
+        <v>5982</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2194</v>
+        <v>11245</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -750,66 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12182</v>
+        <v>112017</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>15109</v>
+        <v>133707</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>27291</v>
+        <v>245724</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>97,33%</t>
         </is>
       </c>
     </row>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>16787</v>
+        <v>139689</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>29485</v>
+        <v>256969</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -896,66 +896,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5325</v>
+        <v>10520</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>3669</v>
+        <v>13503</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8994</v>
+        <v>24023</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -967,66 +967,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>108597</v>
+        <v>179992</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>100226</v>
+        <v>241532</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>304</v>
+        <v>586</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>208822</v>
+        <v>421525</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>96,13%</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>113922</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>319</v>
+        <v>623</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>217816</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1113,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>11643</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>13571</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>18</v>
-      </c>
       <c r="I10" s="2" t="n">
-        <v>10559</v>
+        <v>14121</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>24131</v>
+        <v>25764</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -1184,66 +1184,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>236615</v>
+        <v>177942</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>181793</v>
+        <v>171165</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>87,67%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>586</v>
+        <v>415</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>418407</v>
+        <v>349107</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>95,19%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1330,66 +1330,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>10011</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>13527</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>4,45%</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>11,67%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>17</v>
-      </c>
       <c r="I13" s="2" t="n">
-        <v>11846</v>
+        <v>14811</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>25373</v>
+        <v>24822</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>9,87%</t>
         </is>
       </c>
     </row>
@@ -1401,66 +1401,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>159681</v>
+        <v>157951</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>156056</v>
+        <v>166427</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>315737</v>
+        <v>324379</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>94,99%</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>341110</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1547,66 +1547,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>14083</v>
+        <v>37437</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>10156</v>
+        <v>48417</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>24240</v>
+        <v>85854</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -1618,66 +1618,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>219</v>
+        <v>884</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>160933</v>
+        <v>627903</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>226</v>
+        <v>910</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>161787</v>
+        <v>712831</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>445</v>
+        <v>1794</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>322718</v>
+        <v>1340734</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>95,02%</t>
         </is>
       </c>
     </row>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>175016</v>
+        <v>665340</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>240</v>
+        <v>976</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>171943</v>
+        <v>761248</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>478</v>
+        <v>1918</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>346958</v>
+        <v>1426588</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1753,237 +1753,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>47023</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>5,15%</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>8,38%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>37909</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>4,39%</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>7,63%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>84932</v>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>7,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>910</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>678007</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>93,51%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>91,62%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>94,85%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>884</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>614970</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>94,19%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>92,37%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>95,61%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>1794</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>1292977</v>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>93,84%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>92,64%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>94,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>976</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>725030</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>942</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>652879</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1918</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>1377909</v>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="M1:Q1"/>
